--- a/db_feed/Diao Lab Templates/DPP2TT/DPP2TT_OTS_CF_3mgml_0.3mms_30C_para_air_JW.xlsx
+++ b/db_feed/Diao Lab Templates/DPP2TT/DPP2TT_OTS_CF_3mgml_0.3mms_30C_para_air_JW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khaza\Box\Undergrad_team\Data Project\Kavin\Completed Excel Sheets\DPP2TT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\GitHub\ofet-db\db_feed\Diao Lab Templates\DPP2TT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82E7378-B2C8-4216-935A-07FF2455C4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEE225F-96CA-4BDC-9730-F9761DB64382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -3070,19 +3070,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87527978-2A5B-6545-88F5-0DA220A53CEB}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="75.6328125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="75.5703125" style="8" customWidth="1"/>
     <col min="2" max="2" width="24" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.81640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="5.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6328125" style="3"/>
+    <col min="3" max="3" width="4.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.5703125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
@@ -3107,14 +3107,14 @@
       <c r="D2" s="29"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="15.5">
+    <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="29"/>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="15.5">
+    <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="104" t="s">
         <v>258</v>
       </c>
@@ -3123,7 +3123,7 @@
       <c r="D4" s="93"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="15.5">
+    <row r="5" spans="1:5" ht="15.75">
       <c r="A5" s="105" t="s">
         <v>139</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.5">
+    <row r="6" spans="1:5" ht="15.75">
       <c r="A6" s="105" t="s">
         <v>140</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.5">
+    <row r="7" spans="1:5" ht="15.75">
       <c r="A7" s="105" t="s">
         <v>141</v>
       </c>
@@ -3162,13 +3162,13 @@
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.5">
+    <row r="8" spans="1:5" ht="15.75">
       <c r="A8" s="105"/>
       <c r="B8" s="96"/>
       <c r="C8" s="96"/>
       <c r="D8" s="96"/>
     </row>
-    <row r="9" spans="1:5" ht="15.5">
+    <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="104" t="s">
         <v>143</v>
       </c>
@@ -3176,7 +3176,7 @@
       <c r="C9" s="96"/>
       <c r="D9" s="96"/>
     </row>
-    <row r="10" spans="1:5" ht="15.5">
+    <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="105" t="s">
         <v>292</v>
       </c>
@@ -3186,13 +3186,13 @@
       <c r="C10" s="98"/>
       <c r="D10" s="98"/>
     </row>
-    <row r="11" spans="1:5" ht="15.5">
+    <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="105"/>
       <c r="B11" s="71"/>
       <c r="C11" s="71"/>
       <c r="D11" s="71"/>
     </row>
-    <row r="12" spans="1:5" ht="15.5">
+    <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="106" t="s">
         <v>25</v>
       </c>
@@ -3201,7 +3201,7 @@
       <c r="D12" s="53"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="15.5">
+    <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="107" t="s">
         <v>26</v>
       </c>
@@ -3262,7 +3262,7 @@
       <c r="D17" s="53"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="15.5">
+    <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="106" t="s">
         <v>144</v>
       </c>
@@ -3271,7 +3271,7 @@
       <c r="D18" s="53"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="15.5">
+    <row r="19" spans="1:5" ht="15.75">
       <c r="A19" s="104" t="s">
         <v>59</v>
       </c>
@@ -3279,7 +3279,7 @@
       <c r="C19" s="71"/>
       <c r="D19" s="71"/>
     </row>
-    <row r="20" spans="1:5" ht="15.5">
+    <row r="20" spans="1:5" ht="15.75">
       <c r="A20" s="105" t="s">
         <v>382</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.5">
+    <row r="21" spans="1:5" ht="15.75">
       <c r="A21" s="105" t="s">
         <v>388</v>
       </c>
@@ -3307,7 +3307,7 @@
       <c r="C22" s="71"/>
       <c r="D22" s="71"/>
     </row>
-    <row r="23" spans="1:5" ht="15.5">
+    <row r="23" spans="1:5" ht="15.75">
       <c r="A23" s="104" t="s">
         <v>60</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.5">
+    <row r="42" spans="1:5" ht="15.75">
       <c r="A42" s="9"/>
     </row>
   </sheetData>
@@ -3667,17 +3667,17 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.36328125" customWidth="1"/>
-    <col min="5" max="5" width="32.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.81640625" customWidth="1"/>
-    <col min="9" max="9" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.85546875" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3763,7 +3763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.5">
+    <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="16" t="s">
         <v>66</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.5">
+    <row r="18" spans="1:10" ht="15.75">
       <c r="A18" s="16" t="s">
         <v>35</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.5">
+    <row r="19" spans="1:10" ht="15.75">
       <c r="A19" s="15" t="s">
         <v>67</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.5">
+    <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="15" t="s">
         <v>327</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.5">
+    <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="15" t="s">
         <v>65</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.5">
+    <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="15" t="s">
         <v>326</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.5">
+    <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="15" t="s">
         <v>209</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.5">
+    <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="15" t="s">
         <v>328</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.5">
+    <row r="25" spans="1:10" ht="15.75">
       <c r="A25" s="15" t="s">
         <v>329</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>76261</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.5">
+    <row r="34" spans="1:10" ht="15.75">
       <c r="B34" t="s">
         <v>47</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>6399</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.5">
+    <row r="35" spans="1:10" ht="15.75">
       <c r="B35" t="s">
         <v>48</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>8157</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.5">
+    <row r="36" spans="1:10" ht="15.75">
       <c r="B36" t="s">
         <v>49</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>21354</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.5">
+    <row r="37" spans="1:10" ht="15.75">
       <c r="B37" t="s">
         <v>50</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>74057</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.5">
+    <row r="38" spans="1:10" ht="15.75">
       <c r="B38" t="s">
         <v>51</v>
       </c>
@@ -4159,18 +4159,18 @@
         <v>21932446</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.5">
+    <row r="39" spans="1:10" ht="15.75">
       <c r="G39" s="16"/>
     </row>
-    <row r="40" spans="1:10" ht="15.5">
+    <row r="40" spans="1:10" ht="15.75">
       <c r="G40" s="16"/>
     </row>
-    <row r="41" spans="1:10" ht="15.5">
+    <row r="41" spans="1:10" ht="15.75">
       <c r="H41" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.5">
+    <row r="42" spans="1:10" ht="15.75">
       <c r="G42" s="16"/>
     </row>
     <row r="47" spans="1:10">
@@ -4404,16 +4404,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40DAF9E-DFED-405D-ADE1-B4B8917B7A0A}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1796875" customWidth="1"/>
+    <col min="1" max="1" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
     <col min="5" max="5" width="53" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4439,7 +4439,7 @@
       <c r="B2" s="160"/>
       <c r="C2" s="160"/>
     </row>
-    <row r="4" spans="1:5" ht="15.5">
+    <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="88" t="s">
         <v>280</v>
       </c>
@@ -4480,7 +4480,7 @@
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
     </row>
-    <row r="8" spans="1:5" ht="15.5">
+    <row r="8" spans="1:5" ht="15.75">
       <c r="A8" s="104" t="s">
         <v>129</v>
       </c>
@@ -4488,7 +4488,7 @@
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
     </row>
-    <row r="9" spans="1:5" ht="16" thickBot="1">
+    <row r="9" spans="1:5" ht="16.5" thickBot="1">
       <c r="A9" s="104" t="s">
         <v>274</v>
       </c>
@@ -4496,7 +4496,7 @@
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
     </row>
-    <row r="10" spans="1:5" ht="15.5">
+    <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="73" t="s">
         <v>271</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1">
       <c r="A14" s="65" t="s">
         <v>299</v>
       </c>
@@ -4565,7 +4565,7 @@
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
     </row>
-    <row r="16" spans="1:5" ht="16" thickBot="1">
+    <row r="16" spans="1:5" ht="16.5" thickBot="1">
       <c r="A16" s="112" t="s">
         <v>275</v>
       </c>
@@ -4573,7 +4573,7 @@
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
     </row>
-    <row r="17" spans="1:5" ht="15.5">
+    <row r="17" spans="1:5" ht="15.75">
       <c r="A17" s="73"/>
       <c r="B17" s="59"/>
       <c r="C17" s="59"/>
@@ -4597,7 +4597,7 @@
       <c r="C20" s="40"/>
       <c r="D20" s="64"/>
     </row>
-    <row r="21" spans="1:5" ht="16" thickBot="1">
+    <row r="21" spans="1:5" ht="16.5" thickBot="1">
       <c r="A21" s="75"/>
       <c r="B21" s="46"/>
       <c r="C21" s="76"/>
@@ -4609,7 +4609,7 @@
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
     </row>
-    <row r="23" spans="1:5" ht="15.5">
+    <row r="23" spans="1:5" ht="15.75">
       <c r="A23" s="104" t="s">
         <v>131</v>
       </c>
@@ -4617,7 +4617,7 @@
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
     </row>
-    <row r="24" spans="1:5" ht="16" thickBot="1">
+    <row r="24" spans="1:5" ht="16.5" thickBot="1">
       <c r="A24" s="104" t="s">
         <v>277</v>
       </c>
@@ -4625,7 +4625,7 @@
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
     </row>
-    <row r="25" spans="1:5" ht="15.5">
+    <row r="25" spans="1:5" ht="15.75">
       <c r="A25" s="73" t="s">
         <v>260</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="29">
+    <row r="28" spans="1:5" ht="30">
       <c r="A28" s="61" t="s">
         <v>323</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1">
+    <row r="40" spans="1:4" ht="15.75" thickBot="1">
       <c r="A40" s="92" t="s">
         <v>270</v>
       </c>
@@ -4796,7 +4796,7 @@
       <c r="C41" s="40"/>
       <c r="D41" s="40"/>
     </row>
-    <row r="42" spans="1:4" ht="16" thickBot="1">
+    <row r="42" spans="1:4" ht="16.5" thickBot="1">
       <c r="A42" s="104" t="s">
         <v>278</v>
       </c>
@@ -4804,7 +4804,7 @@
       <c r="C42" s="40"/>
       <c r="D42" s="40"/>
     </row>
-    <row r="43" spans="1:4" ht="15.5">
+    <row r="43" spans="1:4" ht="15.75">
       <c r="A43" s="73"/>
       <c r="B43" s="113"/>
       <c r="C43" s="113"/>
@@ -4894,13 +4894,13 @@
       <c r="C57" s="38"/>
       <c r="D57" s="36"/>
     </row>
-    <row r="58" spans="1:4" ht="15" thickBot="1">
+    <row r="58" spans="1:4" ht="15.75" thickBot="1">
       <c r="A58" s="92"/>
       <c r="B58" s="47"/>
       <c r="C58" s="115"/>
       <c r="D58" s="37"/>
     </row>
-    <row r="92" spans="1:2" ht="26">
+    <row r="92" spans="1:2" ht="26.25">
       <c r="A92" s="54" t="s">
         <v>211</v>
       </c>
@@ -4946,20 +4946,20 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" customWidth="1"/>
-    <col min="4" max="4" width="30.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="30.36328125" customWidth="1"/>
-    <col min="8" max="8" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.453125" customWidth="1"/>
-    <col min="10" max="10" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.5" thickBot="1">
+    <row r="1" spans="1:10" ht="21.75" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>75</v>
       </c>
@@ -4977,7 +4977,7 @@
       <c r="I1" s="162"/>
       <c r="J1" s="163"/>
     </row>
-    <row r="2" spans="1:10" ht="130.25" customHeight="1">
+    <row r="2" spans="1:10" ht="130.35" customHeight="1">
       <c r="A2" s="159" t="s">
         <v>70</v>
       </c>
@@ -5001,7 +5001,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="16" thickBot="1">
+    <row r="4" spans="1:10" ht="16.5" thickBot="1">
       <c r="A4" s="9" t="s">
         <v>410</v>
       </c>
@@ -5014,7 +5014,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="16" thickBot="1">
+    <row r="5" spans="1:10" ht="16.5" thickBot="1">
       <c r="A5" s="129" t="s">
         <v>162</v>
       </c>
@@ -5034,7 +5034,7 @@
       <c r="I5" s="53"/>
       <c r="J5" s="53"/>
     </row>
-    <row r="6" spans="1:10" ht="15.5">
+    <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="132" t="s">
         <v>147</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16" thickBot="1">
+    <row r="12" spans="1:10" ht="16.5" thickBot="1">
       <c r="A12" s="140" t="s">
         <v>156</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16" thickBot="1">
+    <row r="13" spans="1:10" ht="16.5" thickBot="1">
       <c r="A13" s="40"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
@@ -5204,7 +5204,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16" thickBot="1">
+    <row r="14" spans="1:10" ht="16.5" thickBot="1">
       <c r="A14" s="40"/>
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
@@ -5216,7 +5216,7 @@
       <c r="I14" s="53"/>
       <c r="J14" s="40"/>
     </row>
-    <row r="15" spans="1:10" ht="15.5">
+    <row r="15" spans="1:10" ht="15.75">
       <c r="A15" s="40"/>
       <c r="B15" s="40"/>
       <c r="C15" s="40"/>
@@ -5336,7 +5336,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16" thickBot="1">
+    <row r="22" spans="1:10" ht="16.5" thickBot="1">
       <c r="A22" s="40"/>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
@@ -5352,7 +5352,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="40"/>
       <c r="B23" s="40"/>
       <c r="C23" s="40"/>
@@ -5364,7 +5364,7 @@
       <c r="I23" s="40"/>
       <c r="J23" s="53"/>
     </row>
-    <row r="24" spans="1:10" ht="15.5">
+    <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="40"/>
       <c r="B24" s="40"/>
       <c r="C24" s="40"/>
@@ -5536,7 +5536,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="16" thickBot="1">
+    <row r="34" spans="1:10" ht="16.5" thickBot="1">
       <c r="A34" s="40"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
@@ -5552,7 +5552,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="16" thickBot="1">
+    <row r="35" spans="1:10" ht="16.5" thickBot="1">
       <c r="A35" s="40"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
@@ -5564,7 +5564,7 @@
       <c r="I35" s="40"/>
       <c r="J35" s="53"/>
     </row>
-    <row r="36" spans="1:10" ht="15.5">
+    <row r="36" spans="1:10" ht="15.75">
       <c r="A36" s="40"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
@@ -5666,7 +5666,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="16" thickBot="1">
+    <row r="42" spans="1:10" ht="16.5" thickBot="1">
       <c r="A42" s="40"/>
       <c r="B42" s="40"/>
       <c r="C42" s="40"/>
@@ -5682,7 +5682,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15" thickBot="1">
+    <row r="43" spans="1:10" ht="15.75" thickBot="1">
       <c r="A43" s="40"/>
       <c r="B43" s="40"/>
       <c r="C43" s="40"/>
@@ -5694,7 +5694,7 @@
       <c r="I43" s="85"/>
       <c r="J43" s="85"/>
     </row>
-    <row r="44" spans="1:10" ht="15.5">
+    <row r="44" spans="1:10" ht="15.75">
       <c r="A44" s="40"/>
       <c r="B44" s="40"/>
       <c r="C44" s="40"/>
@@ -5830,7 +5830,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="16" thickBot="1">
+    <row r="52" spans="1:10" ht="16.5" thickBot="1">
       <c r="G52" s="75" t="s">
         <v>156</v>
       </c>
@@ -5896,12 +5896,12 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.6328125" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
@@ -5919,15 +5919,15 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.5">
+    <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.5">
+    <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="15.5">
+    <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="86" t="s">
         <v>170</v>
       </c>
@@ -6005,7 +6005,7 @@
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
     </row>
-    <row r="11" spans="1:5" ht="15.5">
+    <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="86" t="s">
         <v>171</v>
       </c>
@@ -6077,7 +6077,7 @@
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
     </row>
-    <row r="18" spans="1:4" ht="15.5">
+    <row r="18" spans="1:4" ht="15.75">
       <c r="A18" s="88" t="s">
         <v>132</v>
       </c>
@@ -6167,15 +6167,15 @@
       <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.5" thickBot="1">
+    <row r="1" spans="1:10" ht="21.75" thickBot="1">
       <c r="A1" s="19" t="s">
         <v>175</v>
       </c>
@@ -6211,13 +6211,13 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1">
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="15.5">
+    <row r="5" spans="1:10" ht="15.75">
       <c r="G5" s="73" t="s">
         <v>176</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16" thickBot="1">
+    <row r="6" spans="1:10" ht="16.5" thickBot="1">
       <c r="A6" s="9" t="s">
         <v>410</v>
       </c>
@@ -6244,7 +6244,7 @@
       <c r="I6" s="40"/>
       <c r="J6" s="63"/>
     </row>
-    <row r="7" spans="1:10" ht="15.5">
+    <row r="7" spans="1:10" ht="15.75">
       <c r="A7" s="73" t="s">
         <v>176</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16" thickBot="1">
+    <row r="12" spans="1:10" ht="16.5" thickBot="1">
       <c r="A12" s="61" t="s">
         <v>157</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16" thickBot="1">
+    <row r="13" spans="1:10" ht="16.5" thickBot="1">
       <c r="A13" s="61" t="s">
         <v>158</v>
       </c>
@@ -6380,7 +6380,7 @@
       <c r="I13" s="53"/>
       <c r="J13" s="40"/>
     </row>
-    <row r="14" spans="1:10" ht="16" thickBot="1">
+    <row r="14" spans="1:10" ht="16.5" thickBot="1">
       <c r="A14" s="157" t="s">
         <v>156</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="G15" s="61" t="s">
         <v>147</v>
       </c>
@@ -6412,7 +6412,7 @@
       <c r="I15" s="40"/>
       <c r="J15" s="63"/>
     </row>
-    <row r="16" spans="1:10" ht="15.5">
+    <row r="16" spans="1:10" ht="15.75">
       <c r="A16" s="73" t="s">
         <v>176</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16" thickBot="1">
+    <row r="20" spans="1:11" ht="16.5" thickBot="1">
       <c r="A20" s="61" t="s">
         <v>323</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1">
+    <row r="21" spans="1:11" ht="15.75" thickBot="1">
       <c r="A21" s="61" t="s">
         <v>157</v>
       </c>
@@ -6526,7 +6526,7 @@
       <c r="I21" s="40"/>
       <c r="J21" s="40"/>
     </row>
-    <row r="22" spans="1:11" ht="15.5">
+    <row r="22" spans="1:11" ht="15.75">
       <c r="A22" s="61" t="s">
         <v>158</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="16" thickBot="1">
+    <row r="23" spans="1:11" ht="16.5" thickBot="1">
       <c r="A23" s="157" t="s">
         <v>156</v>
       </c>
@@ -6568,7 +6568,7 @@
       <c r="I23" s="40"/>
       <c r="J23" s="63"/>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1">
       <c r="G24" s="61" t="s">
         <v>155</v>
       </c>
@@ -6578,7 +6578,7 @@
       <c r="I24" s="40"/>
       <c r="J24" s="63"/>
     </row>
-    <row r="25" spans="1:11" ht="15.5">
+    <row r="25" spans="1:11" ht="15.75">
       <c r="A25" s="73" t="s">
         <v>176</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="16" thickBot="1">
+    <row r="31" spans="1:11" ht="16.5" thickBot="1">
       <c r="A31" s="61" t="s">
         <v>158</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="16" thickBot="1">
+    <row r="32" spans="1:11" ht="16.5" thickBot="1">
       <c r="A32" s="157" t="s">
         <v>156</v>
       </c>
@@ -6747,7 +6747,7 @@
       <c r="I32" s="40"/>
       <c r="J32" s="40"/>
     </row>
-    <row r="33" spans="1:10" ht="16" thickBot="1">
+    <row r="33" spans="1:10" ht="16.5" thickBot="1">
       <c r="G33" s="73" t="s">
         <v>408</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.5">
+    <row r="34" spans="1:10" ht="15.75">
       <c r="A34" s="129" t="s">
         <v>408</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="16" thickBot="1">
+    <row r="40" spans="1:10" ht="16.5" thickBot="1">
       <c r="A40" s="132" t="s">
         <v>153</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="16" thickBot="1">
+    <row r="41" spans="1:10" ht="16.5" thickBot="1">
       <c r="A41" s="140" t="s">
         <v>156</v>
       </c>
@@ -6921,13 +6921,13 @@
         <v>223</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15" thickBot="1">
+    <row r="42" spans="1:10" ht="15.75" thickBot="1">
       <c r="A42" s="134"/>
       <c r="B42" s="134"/>
       <c r="C42" s="134"/>
       <c r="D42" s="134"/>
     </row>
-    <row r="43" spans="1:10" ht="16" thickBot="1">
+    <row r="43" spans="1:10" ht="16.5" thickBot="1">
       <c r="A43" s="73" t="s">
         <v>181</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.5">
+    <row r="44" spans="1:10" ht="15.75">
       <c r="A44" s="61" t="s">
         <v>147</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="16" thickBot="1">
+    <row r="50" spans="1:10" ht="16.5" thickBot="1">
       <c r="A50" s="61" t="s">
         <v>157</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="16" thickBot="1">
+    <row r="52" spans="1:10" ht="16.5" thickBot="1">
       <c r="A52" s="75" t="s">
         <v>156</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15.5">
+    <row r="53" spans="1:10" ht="15.75">
       <c r="G53" s="73" t="s">
         <v>88</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="16" thickBot="1">
+    <row r="61" spans="1:10" ht="16.5" thickBot="1">
       <c r="G61" s="75" t="s">
         <v>156</v>
       </c>
@@ -7266,19 +7266,19 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.36328125" customWidth="1"/>
-    <col min="2" max="2" width="36.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
-    <col min="4" max="4" width="23.6328125" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" customWidth="1"/>
-    <col min="6" max="6" width="45.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6328125" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.5" thickBot="1">
+    <row r="1" spans="1:10" ht="21.75" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>84</v>
       </c>
@@ -7306,7 +7306,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="15.5">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="27"/>
       <c r="F3" s="24" t="s">
         <v>92</v>
@@ -7315,13 +7315,13 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1">
       <c r="F4" s="26" t="s">
         <v>93</v>
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="16" thickBot="1">
+    <row r="5" spans="1:10" ht="16.5" thickBot="1">
       <c r="A5" s="9" t="s">
         <v>95</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.5">
+    <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="58"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -7446,7 +7446,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1">
       <c r="A13" s="65"/>
       <c r="B13" s="46"/>
       <c r="C13" s="66"/>
@@ -7460,13 +7460,13 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1">
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="H14" s="40"/>
       <c r="I14" s="53"/>
     </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1">
+    <row r="15" spans="1:10" ht="16.5" thickBot="1">
       <c r="F15" s="80" t="s">
         <v>86</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.5">
+    <row r="16" spans="1:10" ht="15.75">
       <c r="A16" s="149" t="s">
         <v>86</v>
       </c>
@@ -7715,7 +7715,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1">
       <c r="A27" s="132" t="s">
         <v>318</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="16" thickBot="1">
+    <row r="28" spans="1:10" ht="16.5" thickBot="1">
       <c r="A28" s="153" t="s">
         <v>156</v>
       </c>
@@ -7749,7 +7749,7 @@
       <c r="H28" s="40"/>
       <c r="I28" s="53"/>
     </row>
-    <row r="29" spans="1:10" ht="15.5">
+    <row r="29" spans="1:10" ht="15.75">
       <c r="F29" s="58" t="s">
         <v>89</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15" thickBot="1">
+    <row r="32" spans="1:10" ht="15.75" thickBot="1">
       <c r="F32" s="65" t="s">
         <v>202</v>
       </c>
@@ -7793,13 +7793,13 @@
         <v>255</v>
       </c>
     </row>
-    <row r="33" spans="6:10" ht="15" thickBot="1">
+    <row r="33" spans="6:10" ht="15.75" thickBot="1">
       <c r="F33" s="53"/>
       <c r="G33" s="85"/>
       <c r="H33" s="85"/>
       <c r="I33" s="85"/>
     </row>
-    <row r="34" spans="6:10" ht="15.5">
+    <row r="34" spans="6:10" ht="15.75">
       <c r="F34" s="80" t="s">
         <v>206</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="45" spans="6:10" ht="15" thickBot="1">
+    <row r="45" spans="6:10" ht="15.75" thickBot="1">
       <c r="F45" s="65" t="s">
         <v>205</v>
       </c>
@@ -7973,17 +7973,17 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.6328125" customWidth="1"/>
-    <col min="6" max="6" width="4.453125" customWidth="1"/>
-    <col min="7" max="7" width="45.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+    <col min="7" max="7" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.5" thickBot="1">
+    <row r="1" spans="1:10" ht="21.75" thickBot="1">
       <c r="A1" s="19" t="s">
         <v>187</v>
       </c>
@@ -8019,7 +8019,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1">
       <c r="A4" s="51" t="s">
         <v>234</v>
       </c>
@@ -8028,7 +8028,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="15.5">
+    <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="73" t="s">
         <v>189</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16" thickBot="1">
+    <row r="11" spans="1:10" ht="16.5" thickBot="1">
       <c r="A11" s="75" t="s">
         <v>156</v>
       </c>
@@ -8166,13 +8166,13 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16" thickBot="1">
+    <row r="12" spans="1:10" ht="16.5" thickBot="1">
       <c r="G12" s="77"/>
       <c r="H12" s="40"/>
       <c r="I12" s="53"/>
       <c r="J12" s="40"/>
     </row>
-    <row r="13" spans="1:10" ht="15.5">
+    <row r="13" spans="1:10" ht="15.75">
       <c r="G13" s="73" t="s">
         <v>176</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="7:10" ht="16" thickBot="1">
+    <row r="20" spans="7:10" ht="16.5" thickBot="1">
       <c r="G20" s="75" t="s">
         <v>156</v>
       </c>
@@ -8258,13 +8258,13 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="7:10" ht="15" thickBot="1">
+    <row r="21" spans="7:10" ht="15.75" thickBot="1">
       <c r="G21" s="40"/>
       <c r="H21" s="40"/>
       <c r="I21" s="40"/>
       <c r="J21" s="40"/>
     </row>
-    <row r="22" spans="7:10" ht="15.5">
+    <row r="22" spans="7:10" ht="15.75">
       <c r="G22" s="73" t="s">
         <v>88</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="7:10" ht="16" thickBot="1">
+    <row r="29" spans="7:10" ht="16.5" thickBot="1">
       <c r="G29" s="75" t="s">
         <v>156</v>
       </c>
@@ -8391,18 +8391,18 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="28.453125" customWidth="1"/>
-    <col min="9" max="9" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="28.42578125" customWidth="1"/>
+    <col min="9" max="9" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="21.5" thickBot="1">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="21.75" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>94</v>
       </c>
@@ -8432,7 +8432,7 @@
       <c r="K1" s="162"/>
       <c r="L1" s="163"/>
     </row>
-    <row r="2" spans="1:15" s="8" customFormat="1" ht="15.5">
+    <row r="2" spans="1:15" s="8" customFormat="1" ht="15.75">
       <c r="A2" s="49" t="s">
         <v>236</v>
       </c>
@@ -8454,7 +8454,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" thickBot="1">
+    <row r="4" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="51" t="s">
         <v>234</v>
       </c>
@@ -8465,7 +8465,7 @@
       <c r="J4"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" thickBot="1">
+    <row r="5" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="I5" s="68" t="s">
         <v>377</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.5">
+    <row r="6" spans="1:15" ht="15.75">
       <c r="A6" s="68" t="s">
         <v>377</v>
       </c>
@@ -8520,7 +8520,7 @@
       <c r="N6" s="40"/>
       <c r="O6" s="64"/>
     </row>
-    <row r="7" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1">
+    <row r="7" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="70" t="s">
         <v>231</v>
       </c>
@@ -8543,7 +8543,7 @@
       <c r="N7" s="71"/>
       <c r="O7" s="63"/>
     </row>
-    <row r="8" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1">
+    <row r="8" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="61" t="s">
         <v>213</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1">
+    <row r="9" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="61" t="s">
         <v>222</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1">
+    <row r="10" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="118" t="s">
         <v>214</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1">
+    <row r="11" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="72" t="s">
         <v>224</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1">
+    <row r="12" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="118" t="s">
         <v>380</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1">
+    <row r="13" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="61" t="s">
         <v>218</v>
       </c>
@@ -8754,7 +8754,7 @@
       <c r="N14" s="40"/>
       <c r="O14" s="64"/>
     </row>
-    <row r="15" spans="1:15" ht="15.5">
+    <row r="15" spans="1:15" ht="15.75">
       <c r="A15" s="61"/>
       <c r="B15" s="40"/>
       <c r="C15" s="40"/>
@@ -8772,7 +8772,7 @@
       <c r="N15" s="40"/>
       <c r="O15" s="64"/>
     </row>
-    <row r="16" spans="1:15" ht="15.5">
+    <row r="16" spans="1:15" ht="15.75">
       <c r="A16" s="70" t="s">
         <v>232</v>
       </c>
@@ -8856,7 +8856,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1">
+    <row r="19" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="61" t="s">
         <v>225</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1">
+    <row r="20" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="61" t="s">
         <v>226</v>
       </c>
@@ -8916,7 +8916,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1">
+    <row r="21" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="61" t="s">
         <v>240</v>
       </c>
@@ -9018,7 +9018,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" thickBot="1">
+    <row r="25" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A25" s="61" t="s">
         <v>347</v>
       </c>
@@ -9042,7 +9042,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" thickBot="1">
+    <row r="26" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A26" s="65" t="s">
         <v>156</v>
       </c>
@@ -9069,7 +9069,7 @@
       <c r="M27" s="71"/>
       <c r="N27" s="71"/>
     </row>
-    <row r="28" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1">
+    <row r="28" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="H28" s="3"/>
       <c r="I28" s="40"/>
       <c r="J28" s="40"/>
@@ -9078,7 +9078,7 @@
       <c r="M28" s="40"/>
       <c r="N28" s="40"/>
     </row>
-    <row r="29" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1">
+    <row r="29" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="H29" s="3"/>
       <c r="I29"/>
       <c r="J29"/>
@@ -9087,7 +9087,7 @@
       <c r="M29"/>
       <c r="N29"/>
     </row>
-    <row r="30" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1">
+    <row r="30" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -9103,7 +9103,7 @@
       <c r="M30"/>
       <c r="N30"/>
     </row>
-    <row r="31" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1">
+    <row r="31" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="G31" s="26"/>
       <c r="I31"/>
       <c r="J31"/>
@@ -9112,7 +9112,7 @@
       <c r="M31"/>
       <c r="N31"/>
     </row>
-    <row r="32" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1">
+    <row r="32" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -9128,7 +9128,7 @@
       <c r="M32"/>
       <c r="N32"/>
     </row>
-    <row r="33" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1">
+    <row r="33" spans="1:14" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="H33" s="3"/>
       <c r="I33"/>
       <c r="J33"/>
@@ -9137,7 +9137,7 @@
       <c r="M33"/>
       <c r="N33"/>
     </row>
-    <row r="34" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1">
+    <row r="34" spans="1:14" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="H34" s="3"/>
       <c r="I34"/>
       <c r="J34"/>
@@ -9175,7 +9175,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1">
+    <row r="40" spans="1:14" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
@@ -9202,7 +9202,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1">
+    <row r="43" spans="1:14" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="H43" s="3"/>
       <c r="I43"/>
       <c r="J43"/>
@@ -9211,7 +9211,7 @@
       <c r="M43"/>
       <c r="N43"/>
     </row>
-    <row r="44" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1">
+    <row r="44" spans="1:14" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -9227,7 +9227,7 @@
       <c r="M44"/>
       <c r="N44"/>
     </row>
-    <row r="45" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1">
+    <row r="45" spans="1:14" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -9243,7 +9243,7 @@
       <c r="M45"/>
       <c r="N45"/>
     </row>
-    <row r="46" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1">
+    <row r="46" spans="1:14" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
@@ -9258,7 +9258,7 @@
       <c r="M46"/>
       <c r="N46"/>
     </row>
-    <row r="47" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1">
+    <row r="47" spans="1:14" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
@@ -9273,7 +9273,7 @@
       <c r="M47"/>
       <c r="N47"/>
     </row>
-    <row r="48" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1">
+    <row r="48" spans="1:14" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
@@ -9287,7 +9287,7 @@
       <c r="M48"/>
       <c r="N48"/>
     </row>
-    <row r="49" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1">
+    <row r="49" spans="1:14" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
@@ -9332,7 +9332,7 @@
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
     </row>
-    <row r="54" spans="1:14" ht="15.5">
+    <row r="54" spans="1:14" ht="15.75">
       <c r="A54" s="50"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -9341,7 +9341,7 @@
       <c r="F54" s="7"/>
       <c r="I54" s="8"/>
     </row>
-    <row r="55" spans="1:14" ht="15.5">
+    <row r="55" spans="1:14" ht="15.75">
       <c r="A55" s="50"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -9408,27 +9408,27 @@
       <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="51" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.1796875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.1796875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="42.6328125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="41.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6328125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="16.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.1796875" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="8.6328125" style="3"/>
+    <col min="2" max="2" width="22.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="42.5703125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="41.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.140625" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="8.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="21.5" thickBot="1">
+    <row r="1" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="21.75" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>237</v>
       </c>
@@ -9473,7 +9473,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="17" customHeight="1">
+    <row r="3" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="52" t="s">
         <v>234</v>
       </c>
@@ -9490,7 +9490,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="17" customHeight="1" thickBot="1">
+    <row r="4" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="52"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -9503,7 +9503,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.5">
+    <row r="5" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75">
       <c r="H5"/>
       <c r="I5" s="58" t="s">
         <v>97</v>
@@ -11653,7 +11653,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15" thickBot="1">
+    <row r="12" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75" thickBot="1">
       <c r="I12" s="65" t="s">
         <v>253</v>
       </c>
@@ -11675,7 +11675,7 @@
       <c r="N13" s="53"/>
       <c r="O13" s="53"/>
     </row>
-    <row r="14" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15" thickBot="1">
+    <row r="14" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75" thickBot="1">
       <c r="I14" s="53"/>
       <c r="J14" s="53"/>
       <c r="K14" s="53"/>
@@ -11684,7 +11684,7 @@
       <c r="N14" s="53"/>
       <c r="O14" s="53"/>
     </row>
-    <row r="15" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.5">
+    <row r="15" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75">
       <c r="I15" s="58" t="s">
         <v>98</v>
       </c>
@@ -11774,7 +11774,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="9:15" ht="15" thickBot="1">
+    <row r="21" spans="9:15" ht="15.75" thickBot="1">
       <c r="I21" s="65" t="s">
         <v>253</v>
       </c>
@@ -11796,7 +11796,7 @@
       <c r="N22" s="53"/>
       <c r="O22" s="53"/>
     </row>
-    <row r="23" spans="9:15" ht="15" thickBot="1">
+    <row r="23" spans="9:15" ht="15.75" thickBot="1">
       <c r="I23" s="53"/>
       <c r="J23" s="53"/>
       <c r="K23" s="53"/>
@@ -11805,7 +11805,7 @@
       <c r="N23" s="53"/>
       <c r="O23" s="53"/>
     </row>
-    <row r="24" spans="9:15" ht="15.5">
+    <row r="24" spans="9:15" ht="15.75">
       <c r="I24" s="58" t="s">
         <v>99</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15" thickBot="1">
+    <row r="33" spans="1:15" ht="15.75" thickBot="1">
       <c r="I33" s="65" t="s">
         <v>253</v>
       </c>
@@ -11962,7 +11962,7 @@
       <c r="N34" s="53"/>
       <c r="O34" s="53"/>
     </row>
-    <row r="35" spans="1:15" ht="15" thickBot="1">
+    <row r="35" spans="1:15" ht="15.75" thickBot="1">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -11978,7 +11978,7 @@
       <c r="N35" s="53"/>
       <c r="O35" s="53"/>
     </row>
-    <row r="36" spans="1:15" ht="15.5">
+    <row r="36" spans="1:15" ht="15.75">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -12187,7 +12187,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15" thickBot="1">
+    <row r="50" spans="1:15" ht="15.75" thickBot="1">
       <c r="I50" s="65" t="s">
         <v>253</v>
       </c>
@@ -12200,7 +12200,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15" thickBot="1">
+    <row r="51" spans="1:15" ht="15.75" thickBot="1">
       <c r="I51" s="53"/>
       <c r="J51" s="53"/>
       <c r="K51" s="53"/>
@@ -12209,7 +12209,7 @@
       <c r="N51" s="53"/>
       <c r="O51" s="53"/>
     </row>
-    <row r="52" spans="1:15" ht="15.5">
+    <row r="52" spans="1:15" ht="15.75">
       <c r="I52" s="58" t="s">
         <v>103</v>
       </c>
@@ -12286,7 +12286,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="15" thickBot="1">
+    <row r="57" spans="1:15" ht="15.75" thickBot="1">
       <c r="I57" s="65" t="s">
         <v>253</v>
       </c>
